--- a/manuscriptIII(VGAT-ChR2).xlsx
+++ b/manuscriptIII(VGAT-ChR2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAFD29A-4F9B-4C76-BE70-C5615520F042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0606A9C1-94C6-47E2-AC62-178ACD729671}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4635" windowWidth="21600" windowHeight="15435" firstSheet="5" activeTab="11" xr2:uid="{5958CA25-7AB7-4124-A9D9-15FB2E4EE16B}"/>
+    <workbookView xWindow="26235" yWindow="5340" windowWidth="21600" windowHeight="15435" firstSheet="4" activeTab="8" xr2:uid="{5958CA25-7AB7-4124-A9D9-15FB2E4EE16B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>Washout</t>
   </si>
   <si>
-    <t>VU0250441(30 mins)</t>
-  </si>
-  <si>
     <t>2) new VGAT-ChR2 data withVU0240551 [10 uM]</t>
   </si>
   <si>
@@ -183,6 +180,9 @@
   </si>
   <si>
     <t>HEPES-BUM [10 uM]</t>
+  </si>
+  <si>
+    <t>VU0250441(30 mins+)</t>
   </si>
 </sst>
 </file>
@@ -544,12 +544,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1221,8 +1221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1541EC7-80AC-43D2-BAFE-71F6890D2FDB}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>26.894510999999966</v>
@@ -1881,7 +1881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4238CA02-2806-4785-AED6-C207CA757AC7}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3">
         <v>189.89040000000023</v>
@@ -6795,8 +6795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62960A12-A559-4E1F-A13C-EAC4E53CD53F}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
